--- a/InputData/trans/EVCC/EV Charger Cost.xlsx
+++ b/InputData/trans/EVCC/EV Charger Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us-analysis\InputData\trans\EVCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NY/trans/EVCC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBB0232-F92E-4504-A060-6868C576819E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A6CD8EB-BEE9-724A-B7EC-832E9E7E8619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Source:</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Average DCFC (150 kW taken as representative)</t>
+  </si>
+  <si>
+    <t>New York</t>
   </si>
 </sst>
 </file>
@@ -230,7 +233,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -244,6 +247,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -663,23 +667,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="67.54296875" customWidth="1"/>
+    <col min="2" max="2" width="67.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="9">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,107 +697,107 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.88711067149387013</v>
       </c>
@@ -809,21 +819,21 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -834,7 +844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -845,7 +855,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -858,14 +868,14 @@
         <v>95266.666666666672</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -873,7 +883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -882,7 +892,7 @@
         <v>3192.25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -891,14 +901,14 @@
         <v>33179.25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -909,7 +919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -921,7 +931,7 @@
         <v>0.84215116279069768</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -933,14 +943,14 @@
         <v>0.15784883720930232</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -949,7 +959,7 @@
         <v>16517.325581395347</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -958,7 +968,7 @@
         <v>7925.6630813953489</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -985,18 +995,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
